--- a/Data Files/Senior_Companion_DataK.xlsx
+++ b/Data Files/Senior_Companion_DataK.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pursuitsoftwarebiz-my.sharepoint.com/personal/palak_g_pursuitsoftware_biz/Documents/Desktop/Automation_CaringConnection/Data Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{AE773519-CA0D-4811-920B-3C7F70355327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA9648AF-9F13-4ED1-A8B5-2132844281CB}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="13_ncr:1_{AE773519-CA0D-4811-920B-3C7F70355327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF673CA6-577E-48AF-A042-06A55915D68F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9754E5D5-ADAE-4854-8ADE-7DBCC04917A8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{9754E5D5-ADAE-4854-8ADE-7DBCC04917A8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Senior" sheetId="1" r:id="rId1"/>
-    <sheet name="Companion" sheetId="2" r:id="rId2"/>
+    <sheet name="SeniorSignUp" sheetId="1" r:id="rId1"/>
+    <sheet name="CompanionSignUp" sheetId="2" r:id="rId2"/>
+    <sheet name="SeniorSignIn" sheetId="3" r:id="rId3"/>
+    <sheet name="CompanionSignIn" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="95">
   <si>
     <t>UserName</t>
   </si>
@@ -273,19 +275,55 @@
     <t xml:space="preserve"> On a personal front, I prioritize a balanced lifestyle despite managing allergies, with a carefully planned diet and regular mindfulness practices ensuring both my physical and mental well-being. </t>
   </si>
   <si>
-    <t>pgpalak207@gmail.com</t>
-  </si>
-  <si>
-    <t>shresth207@gmail.com</t>
-  </si>
-  <si>
-    <t>naveen207@gmail.com</t>
-  </si>
-  <si>
-    <t>kanchan207@gmail.com</t>
-  </si>
-  <si>
-    <t>harsh207@gmail.com</t>
+    <t>pgpalak208@gmail.com</t>
+  </si>
+  <si>
+    <t>shresth208@gmail.com</t>
+  </si>
+  <si>
+    <t>naveen208@gmail.com</t>
+  </si>
+  <si>
+    <t>kanchan208@gmail.com</t>
+  </si>
+  <si>
+    <t>harsh208@gmail.com</t>
+  </si>
+  <si>
+    <t>Greetings, I'm Palak, a seasoned explorer in the journey of life, joyfully celebrating my 58 years of existence. With a background in astrophysics, I dedicated decades to exploring the mysteries of the universe. Beyond scientific pursuits, I find solace in the world of music, playing the piano and composing melodies that resonate with the cosmos. In a companion, I seek someone who shares my passion for stargazing and the wonders of the universe. Health-wise, I've faced challenges with arthritis, but with regular physiotherapy and a balanced lifestyle, I continue to pursue my passions with vigor. Life has been a captivating adventure, and I look forward to crafting new experiences with a like-minded soul who appreciates the beauty of the cosmos and the art of music.</t>
+  </si>
+  <si>
+    <t>Greetings, I'm Shresth, a seasoned explorer in the journey of life, joyfully celebrating my 58 years of existence. With a background in environmental science, I dedicated decades to understanding and preserving the natural world. Beyond scientific pursuits, I find solace in the rhythm of pottery, shaping clay into intricate forms, and the therapeutic art of cooking. In a companion, I seek someone who shares my passion for environmental conservation and has an appreciation for the creative blend of artistry and sustainable living. Health-wise, I've faced challenges with asthma, but with careful management and regular breathing exercises, I continue to pursue my passions with vigor. Life has been a captivating adventure, and I look forward to molding new experiences with a like-minded soul who appreciates the beauty of nature and the creativity of the human spirit.</t>
+  </si>
+  <si>
+    <t>Greetings, I'm Kanchan , a seasoned explorer in the journey of life, joyfully celebrating my 58 years of existence. With a background in literature, I dedicated decades to exploring the rich world of words and stories. Beyond academic pursuits, I find solace in the world of painting, crafting vibrant canvases that express the beauty of the written word. In a companion, I hope to find someone who shares my love for literature and the appreciation for the creative blend of art and storytelling. Health-wise, I've faced challenges with allergies, but with careful management and a balanced lifestyle, I continue to pursue my passions with vigor. Life has been a captivating adventure through the pages of books and art, and I look forward to painting new chapters with a like-minded soul who values the beauty of storytelling and the creativity of artistic expression.</t>
+  </si>
+  <si>
+    <t>Greetings, I'm Kanchan , a seasoned explorer in the journey of life, joyfully celebrating my 58 years of existence. With a background in literature, I dedicated decades to exploring the rich world of words and stories.</t>
+  </si>
+  <si>
+    <t>NewProfile</t>
+  </si>
+  <si>
+    <t>Greetings, I'm Harsh , a seasoned explorer in the journey of life, joyfully celebrating my 55 years of existence. With a background in literature, I dedicated decades to exploring the rich world of words and stories. Beyond academic pursuits, I find solace in the world of painting, crafting vibrant canvases that express the beauty of the written word. In a companion, I hope to find someone who shares my love for literature and the appreciation for the creative blend of art and storytelling. Health-wise, I've faced challenges with allergies, but with careful management and a balanced lifestyle, I continue to pursue my passions with vigor. Life has been a captivating adventure through the pages of books and art, and I look forward to painting new chapters with a like-minded soul who values the beauty of storytelling and the creativity of artistic expression.</t>
+  </si>
+  <si>
+    <t>Greetings, I'm Naveen, a seasoned explorer in the journey of life, joyfully celebrating my 57 years of existence. With a background in environmental science, I dedicated decades to understanding and preserving the natural world. Beyond scientific pursuits, I find solace in the world of pottery, shaping clay into intricate forms, and the therapeutic art of cooking. In a companion, I seek someone who shares my passion for environmental conservation and has an appreciation for the creative blend of artistry and sustainable living. Health-wise, I've faced challenges with asthma, but with careful management and regular breathing exercises, I continue to pursue my passions with vigor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello, I'm Ethan, a dedicated art aficionado, celebrating my 28 years of existence. With a Bachelor's degree in art history, I've spent the past decade curating and managing art exhibitions at various museums. Beyond my work in the art world, I find immense joy in expressing my creativity through painting, bringing my imagination to life on canvas. In my quest for professional growth, I'm in search of a senior who can provide valuable insights as I navigate the intricate world of art curation. On a personal note, I prioritize a balanced lifestyle despite managing Crohn's disease, with a carefully planned diet and regular meditation ensuring both my physical and mental well-being. </t>
+  </si>
+  <si>
+    <t>Hello, I'm Olivia, a passionate technology enthusiast, celebrating my 32 years of existence. Equipped with a Ph.D. in computer science, I've spent the past two decades exploring the ever-evolving world of artificial intelligence and machine learning. Beyond the technical domain, I find great satisfaction in channeling my creativity into writing, crafting compelling stories that transport readers to different realms. In my quest for professional growth, I'm in search of a senior who can offer valuable insights as I navigate the dynamic field of AI research. On a personal note, I prioritize a balanced lifestyle despite managing allergies, with regular yoga and meditation sessions ensuring both my physical and mental well-being.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello, I'm Emily, a dedicated environmental advocate, celebrating my 40 years of existence. With a Ph.D. in environmental policy, I've dedicated the past two decades to researching and promoting sustainable agriculture practices. Beyond my work in the environmental sector, I find immense joy in expressing my creativity through gardening, cultivating lush and biodiverse landscapes. In my pursuit of professional growth, I'm in search of a Senior who can offer valuable insights as I navigate the intricate world of agricultural sustainability. On a personal front, I prioritize a balanced lifestyle despite managing allergies, with a carefully planned diet and regular allergen avoidance ensuring both my physical and mental well-being. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello, I'm Sophia, a dedicated art aficionado, celebrating my 28 years of existence. With a Bachelor's degree in art history, I've spent the past decade curating and managing art exhibitions at various museums. Beyond my work in the art world, I find immense joy in expressing my creativity through painting, bringing my imagination to life on canvas. In my quest for professional growth, I'm in search of a senior who can provide valuable insights as I navigate the intricate world of art curation. On a personal note, I prioritize a balanced lifestyle despite managing Crohn's disease, with a carefully planned diet and regular meditation ensuring both my physical and mental well-being. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello, I'm Lily, an avid environmental enthusiast, celebrating my 28 years of existence. Armed with a Bachelor's degree in environmental science, I've dedicated the past six years to researching and advocating for sustainable agricultural practices. Beyond my scientific work, I find immense joy in expressing my creativity through painting, creating vibrant works of art that reflect the beauty of the natural world. In my quest for professional growth, I'm in search of a Senior who can offer valuable insights as I navigate the complex world of environmental research and advocacy. On a personal front, I prioritize a balanced lifestyle despite managing allergies, with a carefully planned diet and regular meditation sessions ensuring both my physical and mental well-being. </t>
   </si>
 </sst>
 </file>
@@ -402,6 +440,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -703,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D07127-690B-44B3-BA5E-7E708B52790D}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="35" zoomScaleNormal="35" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView topLeftCell="A4" zoomScale="35" zoomScaleNormal="35" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -749,7 +791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="358" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -778,7 +820,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="232" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="282" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -807,7 +849,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="232" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="313.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
@@ -836,7 +878,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="240" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="305.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
@@ -865,7 +907,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="208" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="263.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>36</v>
       </c>
@@ -911,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E5AF98-E334-4242-B338-9E7CDBF518ED}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="28" zoomScaleNormal="28" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView topLeftCell="A3" zoomScale="28" zoomScaleNormal="28" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1113,4 +1155,382 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0986305A-55CB-4A74-8204-FEB51906FE08}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView zoomScale="49" zoomScaleNormal="49" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.1796875" customWidth="1"/>
+    <col min="2" max="2" width="45.26953125" customWidth="1"/>
+    <col min="3" max="3" width="32.26953125" customWidth="1"/>
+    <col min="4" max="4" width="62.7265625" customWidth="1"/>
+    <col min="5" max="5" width="42.90625" customWidth="1"/>
+    <col min="6" max="6" width="50.81640625" customWidth="1"/>
+    <col min="7" max="7" width="44.7265625" customWidth="1"/>
+    <col min="8" max="8" width="44.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="188.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="221.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="213.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="230" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="259.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="pgpalak205@gmail.com" xr:uid="{C1953585-B4A3-47B1-9F3F-61FBD8067FA4}"/>
+    <hyperlink ref="B3" r:id="rId2" display="shresth205@gmail.com" xr:uid="{EF0FB865-8B49-4D74-825E-DF6848F9CAF5}"/>
+    <hyperlink ref="B4" r:id="rId3" display="naveen205@gmail.com" xr:uid="{1603AF36-834D-42BD-A7B7-59BE1BBF950D}"/>
+    <hyperlink ref="B5" r:id="rId4" display="kanchan205@gmail.com" xr:uid="{BFF83AD1-63BE-4DA5-9F92-9ABDD5609BF5}"/>
+    <hyperlink ref="B6" r:id="rId5" display="harsh205@gmail.com" xr:uid="{BA8E8B6D-9222-4C57-A47B-3D142CB70A88}"/>
+    <hyperlink ref="C2" r:id="rId6" xr:uid="{77EC24D0-E1C0-4E96-AC68-FA6BE2808644}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA44BE6-C154-431C-AF39-E4454C01F680}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="32.81640625" customWidth="1"/>
+    <col min="2" max="2" width="38.7265625" customWidth="1"/>
+    <col min="3" max="3" width="29.90625" customWidth="1"/>
+    <col min="4" max="4" width="48.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.54296875" customWidth="1"/>
+    <col min="6" max="6" width="35.26953125" customWidth="1"/>
+    <col min="7" max="7" width="34" customWidth="1"/>
+    <col min="8" max="8" width="38" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="236.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="227" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="271.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="270" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="275" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="ethan77@gmail.com" xr:uid="{7165860E-D7A1-41EA-8106-A76C0E631E5B}"/>
+    <hyperlink ref="B3" r:id="rId2" display="olivia77@gmail.com" xr:uid="{80D9DCF8-8B27-4490-8D70-C18ABED41F70}"/>
+    <hyperlink ref="B4" r:id="rId3" display="sophia77@gmail.com" xr:uid="{4F642296-CA21-46E2-BA52-5BED4B16BFB7}"/>
+    <hyperlink ref="B5" r:id="rId4" display="emily77@gmail.com" xr:uid="{DB47B35D-0A65-4906-850D-D892BEAEC667}"/>
+    <hyperlink ref="B6" r:id="rId5" display="lily66@gmail.com" xr:uid="{38DA91DE-DA2F-44BB-B1D0-0B08D5CBB76C}"/>
+    <hyperlink ref="C2" r:id="rId6" xr:uid="{1CB0F753-7E75-4335-9065-4C2D73124A40}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data Files/Senior_Companion_DataK.xlsx
+++ b/Data Files/Senior_Companion_DataK.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pursuitsoftwarebiz-my.sharepoint.com/personal/palak_g_pursuitsoftware_biz/Documents/Desktop/Automation_CaringConnection/Data Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DanvilleCorylLyngdoh\git\Automation_CaringConnection\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{AE773519-CA0D-4811-920B-3C7F70355327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA9648AF-9F13-4ED1-A8B5-2132844281CB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46823D38-CA0A-4E8E-B8A0-54EBF0FCE642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9754E5D5-ADAE-4854-8ADE-7DBCC04917A8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="84">
   <si>
     <t>UserName</t>
   </si>
@@ -273,19 +273,22 @@
     <t xml:space="preserve"> On a personal front, I prioritize a balanced lifestyle despite managing allergies, with a carefully planned diet and regular mindfulness practices ensuring both my physical and mental well-being. </t>
   </si>
   <si>
-    <t>pgpalak207@gmail.com</t>
-  </si>
-  <si>
-    <t>shresth207@gmail.com</t>
-  </si>
-  <si>
-    <t>naveen207@gmail.com</t>
-  </si>
-  <si>
-    <t>kanchan207@gmail.com</t>
-  </si>
-  <si>
-    <t>harsh207@gmail.com</t>
+    <t>pgpalak108@gmail.com</t>
+  </si>
+  <si>
+    <t>Test@108</t>
+  </si>
+  <si>
+    <t>shresth108@gmail.com</t>
+  </si>
+  <si>
+    <t>naveen108@gmail.com</t>
+  </si>
+  <si>
+    <t>kanchan108@gmail.com</t>
+  </si>
+  <si>
+    <t>harsh108@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -703,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D07127-690B-44B3-BA5E-7E708B52790D}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="35" zoomScaleNormal="35" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -760,7 +763,7 @@
         <v>78</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>11</v>
@@ -786,7 +789,7 @@
         <v>464646</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -815,7 +818,7 @@
         <v>464646</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>24</v>
@@ -844,7 +847,7 @@
         <v>464646</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>31</v>
@@ -873,7 +876,7 @@
         <v>464646</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>37</v>
@@ -901,7 +904,7 @@
     <hyperlink ref="C4" r:id="rId3" display="naveen205@gmail.com" xr:uid="{DBA7589D-445C-4E96-A78A-E964F6CE6E2A}"/>
     <hyperlink ref="C5" r:id="rId4" display="kanchan205@gmail.com" xr:uid="{B99502F5-4964-4DE7-AB99-B04A2C2874F4}"/>
     <hyperlink ref="C6" r:id="rId5" display="harsh205@gmail.com" xr:uid="{63B54456-831B-4AD2-9E95-117238707314}"/>
-    <hyperlink ref="D2" r:id="rId6" xr:uid="{C1F0BE85-7548-4F92-BC92-CE8B90C8ACBD}"/>
+    <hyperlink ref="D2" r:id="rId6" display="Test@123" xr:uid="{C1F0BE85-7548-4F92-BC92-CE8B90C8ACBD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1073,7 +1076,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="240" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>71</v>
       </c>

--- a/Data Files/Senior_Companion_DataK.xlsx
+++ b/Data Files/Senior_Companion_DataK.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pursuitsoftwarebiz-my.sharepoint.com/personal/palak_g_pursuitsoftware_biz/Documents/Desktop/Automation_CaringConnection/Data Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DanvilleCorylLyngdoh\git\Automation_CaringConnection\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="13_ncr:1_{AE773519-CA0D-4811-920B-3C7F70355327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF673CA6-577E-48AF-A042-06A55915D68F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53630BB1-1CB9-4875-A536-4E07FFB4FC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{9754E5D5-ADAE-4854-8ADE-7DBCC04917A8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9754E5D5-ADAE-4854-8ADE-7DBCC04917A8}"/>
   </bookViews>
   <sheets>
     <sheet name="SeniorSignUp" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="100">
   <si>
     <t>UserName</t>
   </si>
@@ -324,6 +324,21 @@
   </si>
   <si>
     <t xml:space="preserve">Hello, I'm Lily, an avid environmental enthusiast, celebrating my 28 years of existence. Armed with a Bachelor's degree in environmental science, I've dedicated the past six years to researching and advocating for sustainable agricultural practices. Beyond my scientific work, I find immense joy in expressing my creativity through painting, creating vibrant works of art that reflect the beauty of the natural world. In my quest for professional growth, I'm in search of a Senior who can offer valuable insights as I navigate the complex world of environmental research and advocacy. On a personal front, I prioritize a balanced lifestyle despite managing allergies, with a carefully planned diet and regular meditation sessions ensuring both my physical and mental well-being. </t>
+  </si>
+  <si>
+    <t>pgpalak198@gmail.com</t>
+  </si>
+  <si>
+    <t>shresth198@gmail.com</t>
+  </si>
+  <si>
+    <t>naveen198@gmail.com</t>
+  </si>
+  <si>
+    <t>kanchan198@gmail.com</t>
+  </si>
+  <si>
+    <t>harsh198@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -440,10 +455,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -745,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D07127-690B-44B3-BA5E-7E708B52790D}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="35" zoomScaleNormal="35" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:I6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -799,7 +810,7 @@
         <v>464646</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -828,7 +839,7 @@
         <v>464646</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -857,7 +868,7 @@
         <v>464646</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>24</v>
@@ -886,7 +897,7 @@
         <v>464646</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>31</v>
@@ -915,7 +926,7 @@
         <v>464646</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>37</v>
@@ -1115,7 +1126,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="240" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>71</v>
       </c>
@@ -1350,7 +1361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA44BE6-C154-431C-AF39-E4454C01F680}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>

--- a/Data Files/Senior_Companion_DataK.xlsx
+++ b/Data Files/Senior_Companion_DataK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pursuitsoftwarebiz-my.sharepoint.com/personal/palak_g_pursuitsoftware_biz/Documents/Desktop/Automation_CaringConnection/Data Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="13_ncr:1_{AE773519-CA0D-4811-920B-3C7F70355327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF673CA6-577E-48AF-A042-06A55915D68F}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="13_ncr:1_{AE773519-CA0D-4811-920B-3C7F70355327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C9C662D-9537-4E61-A13E-3BEBCCC119E4}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{9754E5D5-ADAE-4854-8ADE-7DBCC04917A8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9754E5D5-ADAE-4854-8ADE-7DBCC04917A8}"/>
   </bookViews>
   <sheets>
     <sheet name="SeniorSignUp" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="100">
   <si>
     <t>UserName</t>
   </si>
@@ -324,6 +324,21 @@
   </si>
   <si>
     <t xml:space="preserve">Hello, I'm Lily, an avid environmental enthusiast, celebrating my 28 years of existence. Armed with a Bachelor's degree in environmental science, I've dedicated the past six years to researching and advocating for sustainable agricultural practices. Beyond my scientific work, I find immense joy in expressing my creativity through painting, creating vibrant works of art that reflect the beauty of the natural world. In my quest for professional growth, I'm in search of a Senior who can offer valuable insights as I navigate the complex world of environmental research and advocacy. On a personal front, I prioritize a balanced lifestyle despite managing allergies, with a carefully planned diet and regular meditation sessions ensuring both my physical and mental well-being. </t>
+  </si>
+  <si>
+    <t>pgpalak212@gmail.com</t>
+  </si>
+  <si>
+    <t>shresth212@gmail.com</t>
+  </si>
+  <si>
+    <t>kanchan212@gmail.com</t>
+  </si>
+  <si>
+    <t>harsh212@gmail.com</t>
+  </si>
+  <si>
+    <t>naveen212@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -440,10 +455,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -745,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D07127-690B-44B3-BA5E-7E708B52790D}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="35" zoomScaleNormal="35" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:I6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="35" zoomScaleNormal="35" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -799,7 +810,7 @@
         <v>464646</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -828,7 +839,7 @@
         <v>464646</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -857,7 +868,7 @@
         <v>464646</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>24</v>
@@ -886,7 +897,7 @@
         <v>464646</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>31</v>
@@ -915,7 +926,7 @@
         <v>464646</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>37</v>
@@ -940,7 +951,7 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="pgpalak205@gmail.com" xr:uid="{F178278C-8630-4C88-9761-7C08289D125F}"/>
     <hyperlink ref="C3" r:id="rId2" display="shresth205@gmail.com" xr:uid="{19ECF38B-E812-4A92-BA2B-9F2247E45377}"/>
-    <hyperlink ref="C4" r:id="rId3" display="naveen205@gmail.com" xr:uid="{DBA7589D-445C-4E96-A78A-E964F6CE6E2A}"/>
+    <hyperlink ref="C4" r:id="rId3" display="naveen210@gmail.com" xr:uid="{DBA7589D-445C-4E96-A78A-E964F6CE6E2A}"/>
     <hyperlink ref="C5" r:id="rId4" display="kanchan205@gmail.com" xr:uid="{B99502F5-4964-4DE7-AB99-B04A2C2874F4}"/>
     <hyperlink ref="C6" r:id="rId5" display="harsh205@gmail.com" xr:uid="{63B54456-831B-4AD2-9E95-117238707314}"/>
     <hyperlink ref="D2" r:id="rId6" xr:uid="{C1F0BE85-7548-4F92-BC92-CE8B90C8ACBD}"/>
@@ -1086,7 +1097,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="256" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>64</v>
       </c>
@@ -1115,7 +1126,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="240" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>71</v>
       </c>
@@ -1350,7 +1361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA44BE6-C154-431C-AF39-E4454C01F680}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>

--- a/Data Files/Senior_Companion_DataK.xlsx
+++ b/Data Files/Senior_Companion_DataK.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pursuitsoftwarebiz-my.sharepoint.com/personal/palak_g_pursuitsoftware_biz/Documents/Desktop/Automation_CaringConnection/Data Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DanvilleCorylLyngdoh\git\Automation_CaringConnection\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="13_ncr:1_{AE773519-CA0D-4811-920B-3C7F70355327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C9C662D-9537-4E61-A13E-3BEBCCC119E4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD95687-69B6-472C-86B1-D4D66696BF1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9754E5D5-ADAE-4854-8ADE-7DBCC04917A8}"/>
   </bookViews>
@@ -326,9 +326,6 @@
     <t xml:space="preserve">Hello, I'm Lily, an avid environmental enthusiast, celebrating my 28 years of existence. Armed with a Bachelor's degree in environmental science, I've dedicated the past six years to researching and advocating for sustainable agricultural practices. Beyond my scientific work, I find immense joy in expressing my creativity through painting, creating vibrant works of art that reflect the beauty of the natural world. In my quest for professional growth, I'm in search of a Senior who can offer valuable insights as I navigate the complex world of environmental research and advocacy. On a personal front, I prioritize a balanced lifestyle despite managing allergies, with a carefully planned diet and regular meditation sessions ensuring both my physical and mental well-being. </t>
   </si>
   <si>
-    <t>pgpalak212@gmail.com</t>
-  </si>
-  <si>
     <t>shresth212@gmail.com</t>
   </si>
   <si>
@@ -339,6 +336,9 @@
   </si>
   <si>
     <t>naveen212@gmail.com</t>
+  </si>
+  <si>
+    <t>pgpalak213@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -756,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D07127-690B-44B3-BA5E-7E708B52790D}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="35" zoomScaleNormal="35" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="35" zoomScaleNormal="35" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -810,7 +810,7 @@
         <v>464646</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -839,7 +839,7 @@
         <v>464646</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -868,7 +868,7 @@
         <v>464646</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>24</v>
@@ -897,7 +897,7 @@
         <v>464646</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>31</v>
@@ -926,7 +926,7 @@
         <v>464646</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>37</v>
@@ -949,7 +949,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="pgpalak205@gmail.com" xr:uid="{F178278C-8630-4C88-9761-7C08289D125F}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{F178278C-8630-4C88-9761-7C08289D125F}"/>
     <hyperlink ref="C3" r:id="rId2" display="shresth205@gmail.com" xr:uid="{19ECF38B-E812-4A92-BA2B-9F2247E45377}"/>
     <hyperlink ref="C4" r:id="rId3" display="naveen210@gmail.com" xr:uid="{DBA7589D-445C-4E96-A78A-E964F6CE6E2A}"/>
     <hyperlink ref="C5" r:id="rId4" display="kanchan205@gmail.com" xr:uid="{B99502F5-4964-4DE7-AB99-B04A2C2874F4}"/>

--- a/Data Files/Senior_Companion_DataK.xlsx
+++ b/Data Files/Senior_Companion_DataK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pursuitsoftwarebiz-my.sharepoint.com/personal/palak_g_pursuitsoftware_biz/Documents/Desktop/Automation_CaringConnection/Data Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="13_ncr:1_{AE773519-CA0D-4811-920B-3C7F70355327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C9C662D-9537-4E61-A13E-3BEBCCC119E4}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="13_ncr:1_{AE773519-CA0D-4811-920B-3C7F70355327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8959E51-C6D7-493E-A7AA-2EB34FC90F50}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9754E5D5-ADAE-4854-8ADE-7DBCC04917A8}"/>
   </bookViews>
@@ -326,19 +326,19 @@
     <t xml:space="preserve">Hello, I'm Lily, an avid environmental enthusiast, celebrating my 28 years of existence. Armed with a Bachelor's degree in environmental science, I've dedicated the past six years to researching and advocating for sustainable agricultural practices. Beyond my scientific work, I find immense joy in expressing my creativity through painting, creating vibrant works of art that reflect the beauty of the natural world. In my quest for professional growth, I'm in search of a Senior who can offer valuable insights as I navigate the complex world of environmental research and advocacy. On a personal front, I prioritize a balanced lifestyle despite managing allergies, with a carefully planned diet and regular meditation sessions ensuring both my physical and mental well-being. </t>
   </si>
   <si>
-    <t>pgpalak212@gmail.com</t>
-  </si>
-  <si>
-    <t>shresth212@gmail.com</t>
-  </si>
-  <si>
-    <t>kanchan212@gmail.com</t>
-  </si>
-  <si>
-    <t>harsh212@gmail.com</t>
-  </si>
-  <si>
-    <t>naveen212@gmail.com</t>
+    <t>pgpalak215@gmail.com</t>
+  </si>
+  <si>
+    <t>shresth215@gmail.com</t>
+  </si>
+  <si>
+    <t>naveen215@gmail.com</t>
+  </si>
+  <si>
+    <t>kanchan215@gmail.com</t>
+  </si>
+  <si>
+    <t>harsh215@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -455,6 +455,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -868,7 +872,7 @@
         <v>464646</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>24</v>
@@ -897,7 +901,7 @@
         <v>464646</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>31</v>
@@ -926,7 +930,7 @@
         <v>464646</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>37</v>

--- a/Data Files/Senior_Companion_DataK.xlsx
+++ b/Data Files/Senior_Companion_DataK.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pursuitsoftwarebiz-my.sharepoint.com/personal/palak_g_pursuitsoftware_biz/Documents/Desktop/Automation_CaringConnection/Data Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{7A21223C-3C09-4CF8-8DA3-C28BDDFD26DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BFCBC91-03E7-4154-9B27-B0C9487FBF99}"/>
+  <xr:revisionPtr revIDLastSave="130" documentId="13_ncr:1_{7A21223C-3C09-4CF8-8DA3-C28BDDFD26DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76CB79CD-1163-4ECC-B8C1-18A439BEA0AE}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{9754E5D5-ADAE-4854-8ADE-7DBCC04917A8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{9754E5D5-ADAE-4854-8ADE-7DBCC04917A8}"/>
   </bookViews>
   <sheets>
     <sheet name="SeniorSignUp" sheetId="1" r:id="rId1"/>
     <sheet name="CompanionSignUp" sheetId="2" r:id="rId2"/>
+    <sheet name="SpeakTestData" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="82">
   <si>
     <t>UserName</t>
   </si>
@@ -274,6 +275,15 @@
   </si>
   <si>
     <t>lily233@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">health-wise, i've faced challenges with asthma, but with careful management and regular breathing exercises, i continue to pursue my passions with vigor. greetings, i'm harsh, a seasoned explorer in the journey of life, joyfully celebrating my 57 years of existence. </t>
+  </si>
+  <si>
+    <t>Sagar</t>
+  </si>
+  <si>
+    <t>sagar201@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -351,7 +361,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -374,6 +384,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -390,6 +409,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -691,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D07127-690B-44B3-BA5E-7E708B52790D}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="45" zoomScaleNormal="45" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="45" zoomScaleNormal="45" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -708,7 +731,7 @@
     <col min="9" max="9" width="33.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -903,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E5AF98-E334-4242-B338-9E7CDBF518ED}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="28" zoomScaleNormal="28" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="28" zoomScaleNormal="28" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1108,4 +1131,86 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5BCD1B6-3493-46C2-861F-90569DB4C968}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="2" max="2" width="25.90625" customWidth="1"/>
+    <col min="3" max="3" width="34.453125" customWidth="1"/>
+    <col min="4" max="4" width="24.6328125" customWidth="1"/>
+    <col min="5" max="5" width="42.08984375" customWidth="1"/>
+    <col min="6" max="6" width="41.6328125" customWidth="1"/>
+    <col min="7" max="7" width="47.453125" customWidth="1"/>
+    <col min="8" max="8" width="43.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="9" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="9">
+        <v>462046</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{08312405-DC89-4DB6-B72A-7FE8B6B0669F}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{45DF377D-9E37-48A5-9FF8-02F4CBC05B14}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
 </file>
--- a/Data Files/Senior_Companion_DataK.xlsx
+++ b/Data Files/Senior_Companion_DataK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pursuitsoftwarebiz-my.sharepoint.com/personal/palak_g_pursuitsoftware_biz/Documents/Desktop/Automation_CaringConnection/Data Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="130" documentId="13_ncr:1_{7A21223C-3C09-4CF8-8DA3-C28BDDFD26DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76CB79CD-1163-4ECC-B8C1-18A439BEA0AE}"/>
+  <xr:revisionPtr revIDLastSave="132" documentId="13_ncr:1_{7A21223C-3C09-4CF8-8DA3-C28BDDFD26DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC7087BB-C11D-4C51-90B2-E8DED63B6C21}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{9754E5D5-ADAE-4854-8ADE-7DBCC04917A8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9754E5D5-ADAE-4854-8ADE-7DBCC04917A8}"/>
   </bookViews>
   <sheets>
     <sheet name="SeniorSignUp" sheetId="1" r:id="rId1"/>
@@ -247,21 +247,6 @@
     <t xml:space="preserve"> On a personal front, I prioritize a balanced lifestyle despite managing allergies, with a carefully planned diet and regular mindfulness practices ensuring both my physical and mental well-being. </t>
   </si>
   <si>
-    <t>pgpalak231@gmail.com</t>
-  </si>
-  <si>
-    <t>shresth231@gmail.com</t>
-  </si>
-  <si>
-    <t>naveen231@gmail.com</t>
-  </si>
-  <si>
-    <t>kanchan231@gmail.com</t>
-  </si>
-  <si>
-    <t>harsh231@gmail.com</t>
-  </si>
-  <si>
     <t>ethan233@gmail.com</t>
   </si>
   <si>
@@ -284,6 +269,21 @@
   </si>
   <si>
     <t>sagar201@gmail.com</t>
+  </si>
+  <si>
+    <t>pgpalak400@gmail.com</t>
+  </si>
+  <si>
+    <t>shresth400@gmail.com</t>
+  </si>
+  <si>
+    <t>naveen400@gmail.com</t>
+  </si>
+  <si>
+    <t>kanchan400@gmail.com</t>
+  </si>
+  <si>
+    <t>harsh400@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -714,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D07127-690B-44B3-BA5E-7E708B52790D}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView zoomScale="45" zoomScaleNormal="45" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="45" zoomScaleNormal="45" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -768,7 +768,7 @@
         <v>464646</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -797,7 +797,7 @@
         <v>464646</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>10</v>
@@ -826,7 +826,7 @@
         <v>464646</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>10</v>
@@ -855,7 +855,7 @@
         <v>464646</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>10</v>
@@ -884,7 +884,7 @@
         <v>464646</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>10</v>
@@ -907,7 +907,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="pgpalak222@gmail.com" xr:uid="{F178278C-8630-4C88-9761-7C08289D125F}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{F178278C-8630-4C88-9761-7C08289D125F}"/>
     <hyperlink ref="C3" r:id="rId2" display="shresth205@gmail.com" xr:uid="{19ECF38B-E812-4A92-BA2B-9F2247E45377}"/>
     <hyperlink ref="C4" r:id="rId3" display="naveen210@gmail.com" xr:uid="{DBA7589D-445C-4E96-A78A-E964F6CE6E2A}"/>
     <hyperlink ref="C5" r:id="rId4" display="kanchan205@gmail.com" xr:uid="{B99502F5-4964-4DE7-AB99-B04A2C2874F4}"/>
@@ -980,7 +980,7 @@
         <v>464646</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -1009,7 +1009,7 @@
         <v>464646</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>10</v>
@@ -1038,7 +1038,7 @@
         <v>464646</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>10</v>
@@ -1067,7 +1067,7 @@
         <v>464646</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>10</v>
@@ -1096,7 +1096,7 @@
         <v>464646</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>10</v>
@@ -1137,7 +1137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5BCD1B6-3493-46C2-861F-90569DB4C968}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1181,13 +1181,13 @@
     </row>
     <row r="2" spans="1:8" s="9" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B2" s="9">
         <v>462046</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>10</v>
@@ -1202,7 +1202,7 @@
         <v>14</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/Senior_Companion_DataK.xlsx
+++ b/Data Files/Senior_Companion_DataK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pursuitsoftwarebiz-my.sharepoint.com/personal/palak_g_pursuitsoftware_biz/Documents/Desktop/Automation_CaringConnection/Data Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="132" documentId="13_ncr:1_{7A21223C-3C09-4CF8-8DA3-C28BDDFD26DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC7087BB-C11D-4C51-90B2-E8DED63B6C21}"/>
+  <xr:revisionPtr revIDLastSave="133" documentId="13_ncr:1_{7A21223C-3C09-4CF8-8DA3-C28BDDFD26DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11842A58-DE93-46BC-A68C-AED9A3AA70BC}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9754E5D5-ADAE-4854-8ADE-7DBCC04917A8}"/>
   </bookViews>
@@ -271,19 +271,19 @@
     <t>sagar201@gmail.com</t>
   </si>
   <si>
-    <t>pgpalak400@gmail.com</t>
-  </si>
-  <si>
-    <t>shresth400@gmail.com</t>
-  </si>
-  <si>
-    <t>naveen400@gmail.com</t>
-  </si>
-  <si>
-    <t>kanchan400@gmail.com</t>
-  </si>
-  <si>
-    <t>harsh400@gmail.com</t>
+    <t>pgpalak500@gmail.com</t>
+  </si>
+  <si>
+    <t>shresth500@gmail.com</t>
+  </si>
+  <si>
+    <t>naveen500@gmail.com</t>
+  </si>
+  <si>
+    <t>kanchan500@gmail.com</t>
+  </si>
+  <si>
+    <t>harsh500@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -715,7 +715,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="45" zoomScaleNormal="45" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -907,7 +907,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{F178278C-8630-4C88-9761-7C08289D125F}"/>
+    <hyperlink ref="C2" r:id="rId1" display="pgpalak400@gmail.com" xr:uid="{F178278C-8630-4C88-9761-7C08289D125F}"/>
     <hyperlink ref="C3" r:id="rId2" display="shresth205@gmail.com" xr:uid="{19ECF38B-E812-4A92-BA2B-9F2247E45377}"/>
     <hyperlink ref="C4" r:id="rId3" display="naveen210@gmail.com" xr:uid="{DBA7589D-445C-4E96-A78A-E964F6CE6E2A}"/>
     <hyperlink ref="C5" r:id="rId4" display="kanchan205@gmail.com" xr:uid="{B99502F5-4964-4DE7-AB99-B04A2C2874F4}"/>

--- a/Data Files/Senior_Companion_DataK.xlsx
+++ b/Data Files/Senior_Companion_DataK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pursuitsoftwarebiz-my.sharepoint.com/personal/palak_g_pursuitsoftware_biz/Documents/Desktop/Automation_CaringConnection/Data Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="133" documentId="13_ncr:1_{7A21223C-3C09-4CF8-8DA3-C28BDDFD26DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11842A58-DE93-46BC-A68C-AED9A3AA70BC}"/>
+  <xr:revisionPtr revIDLastSave="135" documentId="13_ncr:1_{7A21223C-3C09-4CF8-8DA3-C28BDDFD26DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86864B80-2383-458D-8BCB-D8905137FED8}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9754E5D5-ADAE-4854-8ADE-7DBCC04917A8}"/>
   </bookViews>
@@ -271,19 +271,19 @@
     <t>sagar201@gmail.com</t>
   </si>
   <si>
-    <t>pgpalak500@gmail.com</t>
-  </si>
-  <si>
-    <t>shresth500@gmail.com</t>
-  </si>
-  <si>
-    <t>naveen500@gmail.com</t>
-  </si>
-  <si>
-    <t>kanchan500@gmail.com</t>
-  </si>
-  <si>
-    <t>harsh500@gmail.com</t>
+    <t>pgpalak602@gmail.com</t>
+  </si>
+  <si>
+    <t>shresth602@gmail.com</t>
+  </si>
+  <si>
+    <t>naveen602@gmail.com</t>
+  </si>
+  <si>
+    <t>kanchan602@gmail.com</t>
+  </si>
+  <si>
+    <t>harsh602@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -715,7 +715,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="45" zoomScaleNormal="45" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Data Files/Senior_Companion_DataK.xlsx
+++ b/Data Files/Senior_Companion_DataK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pursuitsoftwarebiz-my.sharepoint.com/personal/palak_g_pursuitsoftware_biz/Documents/Desktop/Automation_CaringConnection/Data Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="135" documentId="13_ncr:1_{7A21223C-3C09-4CF8-8DA3-C28BDDFD26DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86864B80-2383-458D-8BCB-D8905137FED8}"/>
+  <xr:revisionPtr revIDLastSave="136" documentId="13_ncr:1_{7A21223C-3C09-4CF8-8DA3-C28BDDFD26DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E39EA847-C010-425C-B9FB-C30913DF14AA}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9754E5D5-ADAE-4854-8ADE-7DBCC04917A8}"/>
   </bookViews>
@@ -271,19 +271,19 @@
     <t>sagar201@gmail.com</t>
   </si>
   <si>
-    <t>pgpalak602@gmail.com</t>
-  </si>
-  <si>
-    <t>shresth602@gmail.com</t>
-  </si>
-  <si>
-    <t>naveen602@gmail.com</t>
-  </si>
-  <si>
-    <t>kanchan602@gmail.com</t>
-  </si>
-  <si>
-    <t>harsh602@gmail.com</t>
+    <t>pgpalak700@gmail.com</t>
+  </si>
+  <si>
+    <t>shresth700@gmail.com</t>
+  </si>
+  <si>
+    <t>naveen700@gmail.com</t>
+  </si>
+  <si>
+    <t>kanchan700@gmail.com</t>
+  </si>
+  <si>
+    <t>harsh700@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -714,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D07127-690B-44B3-BA5E-7E708B52790D}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="45" zoomScaleNormal="45" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="45" zoomScaleNormal="45" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Data Files/Senior_Companion_DataK.xlsx
+++ b/Data Files/Senior_Companion_DataK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pursuitsoftwarebiz-my.sharepoint.com/personal/palak_g_pursuitsoftware_biz/Documents/Desktop/Automation_CaringConnection/Data Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="136" documentId="13_ncr:1_{7A21223C-3C09-4CF8-8DA3-C28BDDFD26DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E39EA847-C010-425C-B9FB-C30913DF14AA}"/>
+  <xr:revisionPtr revIDLastSave="138" documentId="13_ncr:1_{7A21223C-3C09-4CF8-8DA3-C28BDDFD26DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E1A315F-2185-45E9-AD9A-DB14002CE17A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9754E5D5-ADAE-4854-8ADE-7DBCC04917A8}"/>
   </bookViews>
@@ -271,19 +271,19 @@
     <t>sagar201@gmail.com</t>
   </si>
   <si>
-    <t>pgpalak700@gmail.com</t>
-  </si>
-  <si>
-    <t>shresth700@gmail.com</t>
-  </si>
-  <si>
-    <t>naveen700@gmail.com</t>
-  </si>
-  <si>
-    <t>kanchan700@gmail.com</t>
-  </si>
-  <si>
-    <t>harsh700@gmail.com</t>
+    <t>pgpalak702@gmail.com</t>
+  </si>
+  <si>
+    <t>shresth702@gmail.com</t>
+  </si>
+  <si>
+    <t>naveen702@gmail.com</t>
+  </si>
+  <si>
+    <t>kanchan702@gmail.com</t>
+  </si>
+  <si>
+    <t>harsh702@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -714,7 +714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D07127-690B-44B3-BA5E-7E708B52790D}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="45" zoomScaleNormal="45" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="45" zoomScaleNormal="45" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>

--- a/Data Files/Senior_Companion_DataK.xlsx
+++ b/Data Files/Senior_Companion_DataK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pursuitsoftwarebiz-my.sharepoint.com/personal/palak_g_pursuitsoftware_biz/Documents/Desktop/Automation_CaringConnection/Data Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="138" documentId="13_ncr:1_{7A21223C-3C09-4CF8-8DA3-C28BDDFD26DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E1A315F-2185-45E9-AD9A-DB14002CE17A}"/>
+  <xr:revisionPtr revIDLastSave="141" documentId="13_ncr:1_{7A21223C-3C09-4CF8-8DA3-C28BDDFD26DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B80D202-3BAE-42CC-99BD-D0660D8ADE78}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9754E5D5-ADAE-4854-8ADE-7DBCC04917A8}"/>
   </bookViews>
@@ -271,19 +271,19 @@
     <t>sagar201@gmail.com</t>
   </si>
   <si>
-    <t>pgpalak702@gmail.com</t>
-  </si>
-  <si>
-    <t>shresth702@gmail.com</t>
-  </si>
-  <si>
-    <t>naveen702@gmail.com</t>
-  </si>
-  <si>
-    <t>kanchan702@gmail.com</t>
-  </si>
-  <si>
-    <t>harsh702@gmail.com</t>
+    <t>pgpalak705@gmail.com</t>
+  </si>
+  <si>
+    <t>shresth705@gmail.com</t>
+  </si>
+  <si>
+    <t>naveen705@gmail.com</t>
+  </si>
+  <si>
+    <t>kanchan705@gmail.com</t>
+  </si>
+  <si>
+    <t>harsh705@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -715,7 +715,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="45" zoomScaleNormal="45" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -907,7 +907,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="pgpalak400@gmail.com" xr:uid="{F178278C-8630-4C88-9761-7C08289D125F}"/>
+    <hyperlink ref="C2" r:id="rId1" display="pgpalak704@gmail.com" xr:uid="{F178278C-8630-4C88-9761-7C08289D125F}"/>
     <hyperlink ref="C3" r:id="rId2" display="shresth205@gmail.com" xr:uid="{19ECF38B-E812-4A92-BA2B-9F2247E45377}"/>
     <hyperlink ref="C4" r:id="rId3" display="naveen210@gmail.com" xr:uid="{DBA7589D-445C-4E96-A78A-E964F6CE6E2A}"/>
     <hyperlink ref="C5" r:id="rId4" display="kanchan205@gmail.com" xr:uid="{B99502F5-4964-4DE7-AB99-B04A2C2874F4}"/>

--- a/Data Files/Senior_Companion_DataK.xlsx
+++ b/Data Files/Senior_Companion_DataK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pursuitsoftwarebiz-my.sharepoint.com/personal/palak_g_pursuitsoftware_biz/Documents/Desktop/Automation_CaringConnection/Data Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="141" documentId="13_ncr:1_{7A21223C-3C09-4CF8-8DA3-C28BDDFD26DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B80D202-3BAE-42CC-99BD-D0660D8ADE78}"/>
+  <xr:revisionPtr revIDLastSave="147" documentId="13_ncr:1_{7A21223C-3C09-4CF8-8DA3-C28BDDFD26DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{598804C7-FE96-4645-9A60-D331C9BC26EE}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9754E5D5-ADAE-4854-8ADE-7DBCC04917A8}"/>
   </bookViews>
@@ -247,30 +247,12 @@
     <t xml:space="preserve"> On a personal front, I prioritize a balanced lifestyle despite managing allergies, with a carefully planned diet and regular mindfulness practices ensuring both my physical and mental well-being. </t>
   </si>
   <si>
-    <t>ethan233@gmail.com</t>
-  </si>
-  <si>
-    <t>olivia233@gmail.com</t>
-  </si>
-  <si>
-    <t>sophia233@gmail.com</t>
-  </si>
-  <si>
-    <t>emily233@gmail.com</t>
-  </si>
-  <si>
-    <t>lily233@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">health-wise, i've faced challenges with asthma, but with careful management and regular breathing exercises, i continue to pursue my passions with vigor. greetings, i'm harsh, a seasoned explorer in the journey of life, joyfully celebrating my 57 years of existence. </t>
   </si>
   <si>
     <t>Sagar</t>
   </si>
   <si>
-    <t>sagar201@gmail.com</t>
-  </si>
-  <si>
     <t>pgpalak705@gmail.com</t>
   </si>
   <si>
@@ -284,6 +266,24 @@
   </si>
   <si>
     <t>harsh705@gmail.com</t>
+  </si>
+  <si>
+    <t>ethan705@gmail.com</t>
+  </si>
+  <si>
+    <t>olivia705@gmail.com</t>
+  </si>
+  <si>
+    <t>sophia705@gmail.com</t>
+  </si>
+  <si>
+    <t>emily705@gmail.com</t>
+  </si>
+  <si>
+    <t>lily705@gmail.com</t>
+  </si>
+  <si>
+    <t>sagar250@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -714,7 +714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D07127-690B-44B3-BA5E-7E708B52790D}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="45" zoomScaleNormal="45" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="45" zoomScaleNormal="45" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -768,7 +768,7 @@
         <v>464646</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -797,7 +797,7 @@
         <v>464646</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>10</v>
@@ -826,7 +826,7 @@
         <v>464646</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>10</v>
@@ -855,7 +855,7 @@
         <v>464646</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>10</v>
@@ -884,7 +884,7 @@
         <v>464646</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>10</v>
@@ -907,8 +907,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="pgpalak704@gmail.com" xr:uid="{F178278C-8630-4C88-9761-7C08289D125F}"/>
-    <hyperlink ref="C3" r:id="rId2" display="shresth205@gmail.com" xr:uid="{19ECF38B-E812-4A92-BA2B-9F2247E45377}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{F178278C-8630-4C88-9761-7C08289D125F}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{19ECF38B-E812-4A92-BA2B-9F2247E45377}"/>
     <hyperlink ref="C4" r:id="rId3" display="naveen210@gmail.com" xr:uid="{DBA7589D-445C-4E96-A78A-E964F6CE6E2A}"/>
     <hyperlink ref="C5" r:id="rId4" display="kanchan205@gmail.com" xr:uid="{B99502F5-4964-4DE7-AB99-B04A2C2874F4}"/>
     <hyperlink ref="C6" r:id="rId5" display="harsh205@gmail.com" xr:uid="{63B54456-831B-4AD2-9E95-117238707314}"/>
@@ -927,7 +927,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView zoomScale="28" zoomScaleNormal="28" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -980,7 +980,7 @@
         <v>464646</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -1009,7 +1009,7 @@
         <v>464646</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>10</v>
@@ -1038,7 +1038,7 @@
         <v>464646</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>10</v>
@@ -1067,7 +1067,7 @@
         <v>464646</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>10</v>
@@ -1096,7 +1096,7 @@
         <v>464646</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>10</v>
@@ -1119,7 +1119,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="ethan77@gmail.com" xr:uid="{243D76EE-BAA6-46EC-97FF-0D22B3A40673}"/>
+    <hyperlink ref="C2" r:id="rId1" display="ethan233@gmail.com" xr:uid="{243D76EE-BAA6-46EC-97FF-0D22B3A40673}"/>
     <hyperlink ref="C3" r:id="rId2" display="olivia77@gmail.com" xr:uid="{16DD0240-3539-45A7-8010-74309D130CF3}"/>
     <hyperlink ref="C4" r:id="rId3" display="sophia77@gmail.com" xr:uid="{189BC146-C97A-421A-BE7E-ABF6C974DE70}"/>
     <hyperlink ref="C5" r:id="rId4" display="emily77@gmail.com" xr:uid="{664F8A2F-43C8-47D8-AA9F-65898EA402BB}"/>
@@ -1181,13 +1181,13 @@
     </row>
     <row r="2" spans="1:8" s="9" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B2" s="9">
         <v>462046</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>10</v>
@@ -1202,7 +1202,7 @@
         <v>14</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/Senior_Companion_DataK.xlsx
+++ b/Data Files/Senior_Companion_DataK.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pursuitsoftwarebiz-my.sharepoint.com/personal/palak_g_pursuitsoftware_biz/Documents/Desktop/Automation_CaringConnection/Data Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="147" documentId="13_ncr:1_{7A21223C-3C09-4CF8-8DA3-C28BDDFD26DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{598804C7-FE96-4645-9A60-D331C9BC26EE}"/>
+  <xr:revisionPtr revIDLastSave="186" documentId="13_ncr:1_{7A21223C-3C09-4CF8-8DA3-C28BDDFD26DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADEE92E0-8227-4B9F-B298-550DF632D5B8}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9754E5D5-ADAE-4854-8ADE-7DBCC04917A8}"/>
   </bookViews>
   <sheets>
     <sheet name="SeniorSignUp" sheetId="1" r:id="rId1"/>
-    <sheet name="CompanionSignUp" sheetId="2" r:id="rId2"/>
-    <sheet name="SpeakTestData" sheetId="4" r:id="rId3"/>
+    <sheet name="demographic_page" sheetId="5" r:id="rId2"/>
+    <sheet name="CompanionSignUp" sheetId="2" r:id="rId3"/>
+    <sheet name="SpeakTestData" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="93">
   <si>
     <t>UserName</t>
   </si>
@@ -253,21 +254,6 @@
     <t>Sagar</t>
   </si>
   <si>
-    <t>pgpalak705@gmail.com</t>
-  </si>
-  <si>
-    <t>shresth705@gmail.com</t>
-  </si>
-  <si>
-    <t>naveen705@gmail.com</t>
-  </si>
-  <si>
-    <t>kanchan705@gmail.com</t>
-  </si>
-  <si>
-    <t>harsh705@gmail.com</t>
-  </si>
-  <si>
     <t>ethan705@gmail.com</t>
   </si>
   <si>
@@ -284,13 +270,61 @@
   </si>
   <si>
     <t>sagar250@gmail.com</t>
+  </si>
+  <si>
+    <t>MobileNumber</t>
+  </si>
+  <si>
+    <t>YearOfBirth</t>
+  </si>
+  <si>
+    <t>Address1</t>
+  </si>
+  <si>
+    <t>Address2</t>
+  </si>
+  <si>
+    <t>Driving license number</t>
+  </si>
+  <si>
+    <t>License plate number</t>
+  </si>
+  <si>
+    <t>Make and Model</t>
+  </si>
+  <si>
+    <t>EmergencyContactName</t>
+  </si>
+  <si>
+    <t>Relation</t>
+  </si>
+  <si>
+    <t>EmergencyAddress1</t>
+  </si>
+  <si>
+    <t>EmergencyAddress2</t>
+  </si>
+  <si>
+    <t>pgpalak850@gmail.com</t>
+  </si>
+  <si>
+    <t>shresth850@gmail.com</t>
+  </si>
+  <si>
+    <t>naveen850@gmail.com</t>
+  </si>
+  <si>
+    <t>kanchan850@gmail.com</t>
+  </si>
+  <si>
+    <t>harsh850@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,6 +352,13 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF5F6377"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -333,7 +374,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -356,12 +397,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -391,6 +452,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -714,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D07127-690B-44B3-BA5E-7E708B52790D}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="45" zoomScaleNormal="45" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="45" zoomScaleNormal="45" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -729,6 +799,17 @@
     <col min="7" max="7" width="35.54296875" customWidth="1"/>
     <col min="8" max="8" width="36.36328125" customWidth="1"/>
     <col min="9" max="9" width="33.1796875" customWidth="1"/>
+    <col min="10" max="10" width="32.08984375" customWidth="1"/>
+    <col min="11" max="11" width="37" customWidth="1"/>
+    <col min="12" max="12" width="29.36328125" customWidth="1"/>
+    <col min="13" max="13" width="32" customWidth="1"/>
+    <col min="14" max="14" width="31.36328125" customWidth="1"/>
+    <col min="15" max="15" width="30.1796875" customWidth="1"/>
+    <col min="16" max="16" width="34.54296875" customWidth="1"/>
+    <col min="17" max="17" width="32.90625" customWidth="1"/>
+    <col min="18" max="18" width="35.1796875" customWidth="1"/>
+    <col min="19" max="19" width="31.36328125" customWidth="1"/>
+    <col min="20" max="20" width="34.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -768,7 +849,7 @@
         <v>464646</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -797,7 +878,7 @@
         <v>464646</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>10</v>
@@ -826,7 +907,7 @@
         <v>464646</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>10</v>
@@ -855,7 +936,7 @@
         <v>464646</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>10</v>
@@ -884,7 +965,7 @@
         <v>464646</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>10</v>
@@ -907,8 +988,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{F178278C-8630-4C88-9761-7C08289D125F}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{19ECF38B-E812-4A92-BA2B-9F2247E45377}"/>
+    <hyperlink ref="C2" r:id="rId1" display="pgpalak705@gmail.com" xr:uid="{F178278C-8630-4C88-9761-7C08289D125F}"/>
+    <hyperlink ref="C3" r:id="rId2" display="shresth705@gmail.com" xr:uid="{19ECF38B-E812-4A92-BA2B-9F2247E45377}"/>
     <hyperlink ref="C4" r:id="rId3" display="naveen210@gmail.com" xr:uid="{DBA7589D-445C-4E96-A78A-E964F6CE6E2A}"/>
     <hyperlink ref="C5" r:id="rId4" display="kanchan205@gmail.com" xr:uid="{B99502F5-4964-4DE7-AB99-B04A2C2874F4}"/>
     <hyperlink ref="C6" r:id="rId5" display="harsh205@gmail.com" xr:uid="{63B54456-831B-4AD2-9E95-117238707314}"/>
@@ -923,6 +1004,56 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{101ADD4D-0FD0-4FF1-BD62-A333B8FE9054}">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E5AF98-E334-4242-B338-9E7CDBF518ED}">
   <dimension ref="A1:I6"/>
   <sheetViews>
@@ -980,7 +1111,7 @@
         <v>464646</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -1009,7 +1140,7 @@
         <v>464646</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>10</v>
@@ -1038,7 +1169,7 @@
         <v>464646</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>10</v>
@@ -1067,7 +1198,7 @@
         <v>464646</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>10</v>
@@ -1096,7 +1227,7 @@
         <v>464646</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>10</v>
@@ -1133,7 +1264,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5BCD1B6-3493-46C2-861F-90569DB4C968}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -1187,7 +1318,7 @@
         <v>462046</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>10</v>
